--- a/biology/Médecine/Gian_Domenico_Borasio/Gian_Domenico_Borasio.xlsx
+++ b/biology/Médecine/Gian_Domenico_Borasio/Gian_Domenico_Borasio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gian Domenico Borasio, né le 9 juillet 1962 à Novare, est un médecin italien, pionnier de la médecine palliative.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gian Domenico Borasio naît le 9 juillet 1962 à Novare, dans le Piémont, dans une famille bourgeoise[1].
-Il fait des études de médecine à l'Université de Munich, puis suit une formation en neurologie[1].
-Il est d'abord chercheur en laboratoire, au Max-Planck-Institut à Munich. Ses recherches sur la maladie de Charcot le dirigent naturellement vers la médecine palliative[2]. Il ouvre ainsi en 2004 un Centre interdisciplinaire de soins palliatifs à Munich. Deux ans plus tard, il est nommé à la chaire de soins palliatifs de l'Université de Munich[1].
-Il rejoint le Centre hospitalier universitaire vaudois (CHUV) en 2011[2] et enseigne la médecine palliative à l'Université de Lausanne[3]. 
-Il est père d'un enfant[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gian Domenico Borasio naît le 9 juillet 1962 à Novare, dans le Piémont, dans une famille bourgeoise.
+Il fait des études de médecine à l'Université de Munich, puis suit une formation en neurologie.
+Il est d'abord chercheur en laboratoire, au Max-Planck-Institut à Munich. Ses recherches sur la maladie de Charcot le dirigent naturellement vers la médecine palliative. Il ouvre ainsi en 2004 un Centre interdisciplinaire de soins palliatifs à Munich. Deux ans plus tard, il est nommé à la chaire de soins palliatifs de l'Université de Munich.
+Il rejoint le Centre hospitalier universitaire vaudois (CHUV) en 2011 et enseigne la médecine palliative à l'Université de Lausanne. 
+Il est père d'un enfant.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Prix littéraire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2012: Prix Wissensbuch des Jahres (meilleur livre de science de l'année) dans la catégorie Zündstoff (thème explosif) remis pour le livre Über das Sterben.[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2012: Prix Wissensbuch des Jahres (meilleur livre de science de l'année) dans la catégorie Zündstoff (thème explosif) remis pour le livre Über das Sterben..
 </t>
         </is>
       </c>
@@ -579,13 +595,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Comme auteur
-Über das Sterben. Was wir wissen. Was wir tun können. Wie wir uns darauf einstellen. Beck, Munich 2011,  (ISBN 978-3-406-61708-9).
+          <t>Comme auteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Über das Sterben. Was wir wissen. Was wir tun können. Wie wir uns darauf einstellen. Beck, Munich 2011,  (ISBN 978-3-406-61708-9).
 (fr) Mourir. Ce que l'on sait, ce que l'on peut faire, comment s'y préparer, Presses polytechniques et universitaires romandes, Lausanne, 2014,  (ISBN 978-2-889-15011-3).
 Selbstbestimmt sterben. Was es bedeutet. Was uns daran hindert. Wie wir es erreichen können. Beck, Munich 2014,  (ISBN 978-3-406-66862-3).
-(fr) L'autonomie en fin de vie. Le débat allemand, des pistes pour la Suisse, un enjeu pour tous, Presses polytechniques et universitaires romandes, Lausanne, 2017  (ISBN 9782889152223).
-Comme coauteur
-avec Ingeborg Maria Husemeyer: Ernährung bei Schluckstörungen. Eine Sammlung von Rezepten, die das Schlucken erleichtern.
+(fr) L'autonomie en fin de vie. Le débat allemand, des pistes pour la Suisse, un enjeu pour tous, Presses polytechniques et universitaires romandes, Lausanne, 2017  (ISBN 9782889152223).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gian_Domenico_Borasio</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gian_Domenico_Borasio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comme coauteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>avec Ingeborg Maria Husemeyer: Ernährung bei Schluckstörungen. Eine Sammlung von Rezepten, die das Schlucken erleichtern.
 avec Ralf J. Jox, Katja Kühlmeyer: Leben im Koma. Kohlhammer, Stuttgart 2011.
 avec Hans-Joachim Heßler, Ralf J. Jox, Christoph Meier: Patientenverfügung. Das neue Gesetz in der Praxis. Kohlhammer, Stuttgart 2012.
 avec Franz-Joseph Bormann: Sterben. Dimensionen eines anthropologischen Grundphänomens. De Gruyter, Berlin 2012.
